--- a/PRDs/xlsx/patient nfr_requirements.xlsx
+++ b/PRDs/xlsx/patient nfr_requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pendrive 1.0\University\Semester 10\Software Engineering\Lab\FINAL\GitArchieve\PRDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pendrive 1.0\University\Semester 10\Software Engineering\Lab\FINAL\GitArchieve\PRDs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECF036D-3401-43B6-A540-EEED764F89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFCCF8-652A-4057-B3F6-B5EA874EF162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25CAEBD0-B4F1-49A1-8518-415BBBDAEB8A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Item No.</t>
   </si>
@@ -193,63 +193,10 @@
     <t>NF-07</t>
   </si>
   <si>
-    <t>1. User consent must be obtained before accessing device location
-2. Personal data deletion must be completed within 30 days of user request
-3. Data sharing with third parties must be explicitly consented by users
-4. Users must be able to view and export their personal data
-5. System must comply with healthcare data protection regulations
-6. Audit logs must track all access to sensitive user information</t>
-  </si>
-  <si>
-    <t>Privacy &amp; Compliance</t>
-  </si>
-  <si>
-    <t>System must protect user privacy and comply with data protection regulations</t>
-  </si>
-  <si>
-    <t>Privacy protection and regulatory compliance</t>
-  </si>
-  <si>
-    <t>As a patient, I want control over my personal health data, so I can decide how my information is used and shared.</t>
-  </si>
-  <si>
     <t>NF-08</t>
   </si>
   <si>
     <t>Usability</t>
-  </si>
-  <si>
-    <t>1. App interface must be responsive and adapt to screen sizes from 4.7 to 12.9"</t>
-  </si>
-  <si>
-    <t>2. Touch targets must be minimum 44px for accessibility</t>
-  </si>
-  <si>
-    <t>3. Color contrast ratio must meet WCAG 2.1 AA standards (4.5:1)</t>
-  </si>
-  <si>
-    <t>4. Text must be readable with font size options from 14px to 20px</t>
-  </si>
-  <si>
-    <t>5. Voice-over support must be available for visually impaired users</t>
-  </si>
-  <si>
-    <t>6. App must be usable with one-hand operation for key functions"</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>System must be accessible to users with varying abilities and devices</t>
-  </si>
-  <si>
-    <t>Universal design and accessibility standards</t>
-  </si>
-  <si>
-    <t>As a user with accessibility needs, I want the app to be easy to use regardless of my physical abilities, so I can access healthcare services independently.</t>
-  </si>
-  <si>
-    <t>NF-09</t>
   </si>
   <si>
     <t>1. New users should complete their first successful task within 5 minutes
@@ -272,56 +219,7 @@
     <t>As a new user, I want to easily understand how to use the app, so I can quickly access healthcare services without confusion.</t>
   </si>
   <si>
-    <t>NF-10</t>
-  </si>
-  <si>
-    <t>1. App must support English and local language (Bengali) with easy switching
-2. Cultural considerations should be incorporated in design and content
-3. Medical terminology should be explained in simple language
-4. Time and date formats should match user's locale preferences
-5. Currency and payment methods should reflect local options
-6. Content should be culturally appropriate for the target demographic</t>
-  </si>
-  <si>
-    <t>Localization</t>
-  </si>
-  <si>
-    <t>System must be adapted for local language and cultural requirements</t>
-  </si>
-  <si>
-    <t>Regional customization and cultural adaptation</t>
-  </si>
-  <si>
-    <t>As a local user, I want the app to support my language and cultural preferences, so I can comfortably navigate healthcare services.</t>
-  </si>
-  <si>
-    <t>NF-11</t>
-  </si>
-  <si>
     <t>Maintainability</t>
-  </si>
-  <si>
-    <t>1. Code must maintain minimum 80% test coverage with automated testing
-2. System architecture must follow microservices pattern for modular updates
-3. Database schema changes must be backward compatible for 2 versions
-4. API versioning must be implemented to support gradual updates
-5. Comprehensive logging must be implemented for debugging and monitoring
-6. Code documentation must be updated with every feature release</t>
-  </si>
-  <si>
-    <t>Code Quality</t>
-  </si>
-  <si>
-    <t>System must be designed for easy maintenance and updates</t>
-  </si>
-  <si>
-    <t>Development and maintenance best practices</t>
-  </si>
-  <si>
-    <t>As a development team, I want well-structured and documented code, so we can efficiently maintain and enhance the healthcare platform.</t>
-  </si>
-  <si>
-    <t>NF-12</t>
   </si>
   <si>
     <t>1. System monitoring dashboard must track key performance metrics
@@ -343,156 +241,12 @@
   <si>
     <t>As a system administrator, I want automated monitoring and maintenance tools, so I can ensure the healthcare platform operates smoothly.</t>
   </si>
-  <si>
-    <t>NF-13</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t>1. System architecture must support horizontal scaling to handle 10x user growth
-2. Database must be designed to handle 1 million user records efficiently
-3. CDN integration must be implemented for global content delivery
-4. Load balancing must distribute traffic across multiple servers
-5. Caching strategy must be implemented to reduce database load
-6. Auto-scaling must trigger when CPU usage exceeds 70%</t>
-  </si>
-  <si>
-    <t>System Scalability</t>
-  </si>
-  <si>
-    <t>System must be able to grow with increasing user demand</t>
-  </si>
-  <si>
-    <t>Infrastructure scaling and capacity planning</t>
-  </si>
-  <si>
-    <t>As a business stakeholder, I want the system to handle growing user numbers, so we can expand our healthcare services without technical limitations.</t>
-  </si>
-  <si>
-    <t>NF-14</t>
-  </si>
-  <si>
-    <t>1. New features must be deployable without affecting existing functionality
-2. Third-party integrations must be designed with rate limiting and fallback options
-3. Message queuing system must handle asynchronous processing for heavy operations
-4. Database partitioning strategy must be implemented for large datasets
-5. Geographic distribution of servers must be supported for global expansion
-6. System must support multi-tenancy for different healthcare organizations</t>
-  </si>
-  <si>
-    <t>Feature Scalability</t>
-  </si>
-  <si>
-    <t>System must accommodate new features and integrations efficiently</t>
-  </si>
-  <si>
-    <t>Extensibility and integration capabilities</t>
-  </si>
-  <si>
-    <t>As a product manager, I want the ability to add new healthcare features easily, so we can adapt to changing medical service requirements.</t>
-  </si>
-  <si>
-    <t>NF-15</t>
-  </si>
-  <si>
-    <t>1. Mobile app size should not exceed 50MB for initial download
-2. Incremental updates should be under 10MB when possible
-3. Offline data storage should be optimized to use minimal device storage
-4. Image compression should maintain quality while reducing file size by 60%
-5. Network data usage should be minimized through efficient API design
-6. Progressive loading should be implemented for content-heavy pages</t>
-  </si>
-  <si>
-    <t>Resource Optimization</t>
-  </si>
-  <si>
-    <t>System must efficiently use device and network resources</t>
-  </si>
-  <si>
-    <t>Resource consumption and optimization requirements</t>
-  </si>
-  <si>
-    <t>As a user with limited data or storage, I want the app to use resources efficiently, so I can access healthcare services without exceeding my device limits.</t>
-  </si>
-  <si>
-    <t>NF-16</t>
-  </si>
-  <si>
-    <t>1. Regular penetration testing must be conducted quarterly
-2. Vulnerability scanning must be automated and run weekly
-3. Security patches must be applied within 48 hours of availability
-4. Incident response plan must be tested and updated annually
-5. Employee security training must be completed bi-annually
-6. Third-party security assessments must be conducted before integrations</t>
-  </si>
-  <si>
-    <t>Security Operations</t>
-  </si>
-  <si>
-    <t>System must maintain ongoing security through operational procedures</t>
-  </si>
-  <si>
-    <t>Security monitoring and incident response</t>
-  </si>
-  <si>
-    <t>As a security officer, I want comprehensive security operations, so patient data and system integrity are continuously protected.</t>
-  </si>
-  <si>
-    <t>NF-17</t>
-  </si>
-  <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>1. System must comply with local healthcare regulations and licensing requirements
-2. Data retention policies must align with medical record requirements
-3. Audit trails must be maintained for all user actions for minimum 7 years
-4. Medical device integration must meet relevant safety and efficacy standards
-5. Telemedicine features must comply with local telehealth regulations
-6. Payment processing must meet financial services compliance requirements</t>
-  </si>
-  <si>
-    <t>Regulatory Compliance</t>
-  </si>
-  <si>
-    <t>System must meet all applicable healthcare and data protection regulations</t>
-  </si>
-  <si>
-    <t>Legal and regulatory requirement adherence</t>
-  </si>
-  <si>
-    <t>As a healthcare compliance officer, I want the system to meet all regulatory requirements, so our organization remains compliant with healthcare laws.</t>
-  </si>
-  <si>
-    <t>NF-18</t>
-  </si>
-  <si>
-    <t>1. Automated testing must cover critical user journeys with 95% success rate
-2. Load testing must be performed monthly to validate performance under stress
-3. Disaster recovery procedures must be tested quarterly
-4. Data backup integrity must be verified weekly through restoration tests
-5. System dependencies must have fallback options to prevent single points of failure
-6. Error tracking and alerting must notify administrators within 5 minutes of issues</t>
-  </si>
-  <si>
-    <t>Quality Assurance</t>
-  </si>
-  <si>
-    <t>System must undergo comprehensive testing and quality validation</t>
-  </si>
-  <si>
-    <t>Testing and quality validation procedures</t>
-  </si>
-  <si>
-    <t>As a quality assurance manager, I want thorough testing procedures, so we can ensure reliable healthcare services for all users.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +377,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1349,11 +1109,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE3C459-1555-453E-A2AF-04EE1D53CC47}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="A1:G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1363,461 +1134,231 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
+      <c r="C6" t="s">
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="375" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" t="s">
-        <v>126</v>
-      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
